--- a/VAD-python/Accuracy measurements.xlsx
+++ b/VAD-python/Accuracy measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="3540" windowWidth="28380" windowHeight="14000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="160" yWindow="5520" windowWidth="28380" windowHeight="12020" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
   <si>
     <t>VAD</t>
   </si>
@@ -91,6 +91,36 @@
   </si>
   <si>
     <t>*move files from /YesVoice to /NoVoice</t>
+  </si>
+  <si>
+    <t>OpenSMILE</t>
+  </si>
+  <si>
+    <t>TP=35</t>
+  </si>
+  <si>
+    <t>FN=0</t>
+  </si>
+  <si>
+    <t>TN=5</t>
+  </si>
+  <si>
+    <t>FP=19</t>
+  </si>
+  <si>
+    <t>FP=2</t>
+  </si>
+  <si>
+    <t>TN=18</t>
+  </si>
+  <si>
+    <t>TP=13</t>
+  </si>
+  <si>
+    <t>FN=6</t>
+  </si>
+  <si>
+    <t>n = 39</t>
   </si>
 </sst>
 </file>
@@ -153,8 +183,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -162,9 +200,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -496,15 +542,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C4"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -555,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -727,10 +773,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -756,10 +802,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -767,10 +816,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -778,8 +830,109 @@
         <v>22</v>
       </c>
     </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <f>(B14+B11)/B15</f>
+        <v>0.67796610169491522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <f>1-E11</f>
+        <v>0.32203389830508478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <f>B14/B9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <f>B12/B10</f>
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -790,22 +943,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -814,26 +967,140 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <f>(B14+B11)/B15</f>
+        <v>0.79487179487179482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <f>1-E11</f>
+        <v>0.20512820512820518</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <f>B14/B9</f>
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>9</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <f>B12/B10</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
